--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/DropItemDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/DropItemDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\OneDrive\바탕 화면\학업\ExcelToTabText (2)\ExcelToTabText\ExcelToTabText\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0600CC-2525-4F73-8C63-6351DA538230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A303191-A6D3-45DF-968F-3E5D3E0F445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableDropItem" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>레드젬</t>
   </si>
@@ -55,9 +55,6 @@
     <t>HpRecorvery</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>폭탄 아이템</t>
   </si>
   <si>
@@ -71,10 +68,6 @@
   </si>
   <si>
     <t>상자1</t>
-  </si>
-  <si>
-    <t>DropIntemId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -136,6 +129,22 @@
   </si>
   <si>
     <t>DropItem_Magnet</t>
+  </si>
+  <si>
+    <t>HpRecorvery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,39 +442,39 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -502,10 +511,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -522,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -542,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -559,70 +568,70 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>60002</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>60003</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>60004</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/DropItemDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/DropItemDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A303191-A6D3-45DF-968F-3E5D3E0F445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DAD963-AF00-410E-B9DD-8C2FC98BCF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableDropItem" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>레드젬</t>
   </si>
@@ -144,6 +144,38 @@
   </si>
   <si>
     <t>DropItemId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedGemDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenGemDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueGemDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurpleGemDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpRecorveryDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagentDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxDesc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -442,19 +474,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -474,7 +506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -494,7 +526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -505,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -514,7 +546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -525,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -534,7 +566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -545,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
@@ -554,7 +586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -565,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -574,7 +606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -585,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -594,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -605,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -614,7 +646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -625,7 +657,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
